--- a/biology/Zoologie/Allosauroidea/Allosauroidea.xlsx
+++ b/biology/Zoologie/Allosauroidea/Allosauroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">allosauroïdes
 Les Allosauroidea (les allosauroïdes en français) forment une super-famille ou clade de dinosaures théropodes qui comprend quatre familles : les Metriacanthosauridae, les Allosauridae, les Carcharodontosauridae et les Neovenatoridae.
@@ -515,17 +527,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Super-famille des Allosauroidea
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Super-famille des Allosauroidea
 Genre Becklespinax ?
-Genre Poekilopleuron[2]
+Genre Poekilopleuron
 Famille des Allosauridae
 Famille des Carcharodontosauridae
 Famille des Neovenatoridae
-Famille des Metriacanthosauridae (ex-Sinraptoridae)
-Phylogénie
-Le clade des Allosauroidea a été initialement proposé par Phil Currie et Zhao (1993, p. 2079), et plus tard utilisé comme un taxon racine de rang non défini par Paul Sereno (1997). Sereno (1998, p. 64) a été le premier à donner une définition les Allosauroidea, définissant le clade ainsi « Tous les néotétanoures plus proches d'Allosaurus que de Neornithes." Kevin Padian (2007) a utilisé une autre définition, définissant les Allosauroidea comme comprenant Allosaurus, Sinraptor, leur dernier ancêtre commun et tous ses descendants ». Thomas R. Holtz et ses collègues (2004, p. 100) et Phil Currie et Kenneth Carpenter (2000), entre autres, ont suivi cette deuxième définition à base de nœud. Toutefois, dans certaines analyses (tels que Currie &amp; Carpenter, 2000), le placement des carcharodontosauridés par rapport aux allosauridés et aux sinraptoridés est incertain, et donc on ne sait pas s'ils appartiennent ou non aux Allosauroidea (Currie &amp; Carpenter, 2000).
-Le cladogramme présenté ci-dessous suit l'analyse de 2012 par M. T. Carrano et ses collègues[3]. La principale différence avec le cladogramme précédent de R.B.J. Benson et ses collègues en 2010 est que la famille des Sinraptoridae est renommée du nom de son synonyme plus ancien(synonyme senior), les Metriacanthosauridae[4] :
+Famille des Metriacanthosauridae (ex-Sinraptoridae)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Allosauroidea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosauroidea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Allosauroidea a été initialement proposé par Phil Currie et Zhao (1993, p. 2079), et plus tard utilisé comme un taxon racine de rang non défini par Paul Sereno (1997). Sereno (1998, p. 64) a été le premier à donner une définition les Allosauroidea, définissant le clade ainsi « Tous les néotétanoures plus proches d'Allosaurus que de Neornithes." Kevin Padian (2007) a utilisé une autre définition, définissant les Allosauroidea comme comprenant Allosaurus, Sinraptor, leur dernier ancêtre commun et tous ses descendants ». Thomas R. Holtz et ses collègues (2004, p. 100) et Phil Currie et Kenneth Carpenter (2000), entre autres, ont suivi cette deuxième définition à base de nœud. Toutefois, dans certaines analyses (tels que Currie &amp; Carpenter, 2000), le placement des carcharodontosauridés par rapport aux allosauridés et aux sinraptoridés est incertain, et donc on ne sait pas s'ils appartiennent ou non aux Allosauroidea (Currie &amp; Carpenter, 2000).
+Le cladogramme présenté ci-dessous suit l'analyse de 2012 par M. T. Carrano et ses collègues. La principale différence avec le cladogramme précédent de R.B.J. Benson et ses collègues en 2010 est que la famille des Sinraptoridae est renommée du nom de son synonyme plus ancien(synonyme senior), les Metriacanthosauridae :
 </t>
         </is>
       </c>
